--- a/data/pca/factorExposure/factorExposure_2009-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009787904394001365</v>
+        <v>0.01692399715339945</v>
       </c>
       <c r="C2">
-        <v>-0.002066763396074801</v>
+        <v>0.0008994332556907146</v>
       </c>
       <c r="D2">
-        <v>0.008162392160312615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00882836978899929</v>
+      </c>
+      <c r="E2">
+        <v>0.0017146711299602</v>
+      </c>
+      <c r="F2">
+        <v>0.01216175039313847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1075116125075387</v>
+        <v>0.09361101886854256</v>
       </c>
       <c r="C4">
-        <v>-0.01381850192437017</v>
+        <v>0.01436909051293612</v>
       </c>
       <c r="D4">
-        <v>0.06134512302635944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08428240397572635</v>
+      </c>
+      <c r="E4">
+        <v>0.02895151908406958</v>
+      </c>
+      <c r="F4">
+        <v>-0.03234675056322656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1434624108719727</v>
+        <v>0.1587064982928317</v>
       </c>
       <c r="C6">
-        <v>-0.01868054460828761</v>
+        <v>0.02615670819726843</v>
       </c>
       <c r="D6">
-        <v>-0.02331316730706098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02284677819410146</v>
+      </c>
+      <c r="E6">
+        <v>0.0102683101311211</v>
+      </c>
+      <c r="F6">
+        <v>-0.04460084062484131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0739575013098711</v>
+        <v>0.06346284045077617</v>
       </c>
       <c r="C7">
-        <v>0.001787423783724113</v>
+        <v>-0.001753716828353531</v>
       </c>
       <c r="D7">
-        <v>0.03530433947147023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05300615174746053</v>
+      </c>
+      <c r="E7">
+        <v>0.01193508106279474</v>
+      </c>
+      <c r="F7">
+        <v>-0.04769302639416156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06133960344309462</v>
+        <v>0.0571439789516199</v>
       </c>
       <c r="C8">
-        <v>0.01337638909206157</v>
+        <v>-0.01353163711209148</v>
       </c>
       <c r="D8">
-        <v>0.01137516813351163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03295286457030656</v>
+      </c>
+      <c r="E8">
+        <v>0.01808680982247803</v>
+      </c>
+      <c r="F8">
+        <v>0.02732251692453912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08169713371957342</v>
+        <v>0.07083682121477454</v>
       </c>
       <c r="C9">
-        <v>-0.01229017096900601</v>
+        <v>0.01020223532757314</v>
       </c>
       <c r="D9">
-        <v>0.06546343288254379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08680006712388505</v>
+      </c>
+      <c r="E9">
+        <v>0.02369133656005409</v>
+      </c>
+      <c r="F9">
+        <v>-0.04826732292717723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07656326658280635</v>
+        <v>0.09289361433977807</v>
       </c>
       <c r="C10">
-        <v>-0.007022501703943558</v>
+        <v>0.02112691226109348</v>
       </c>
       <c r="D10">
-        <v>-0.1526134021608886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1657838430723305</v>
+      </c>
+      <c r="E10">
+        <v>-0.033007354853645</v>
+      </c>
+      <c r="F10">
+        <v>0.05490171499091803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09352435990825446</v>
+        <v>0.08787528547877567</v>
       </c>
       <c r="C11">
-        <v>-0.01177439488371161</v>
+        <v>0.01007746286001449</v>
       </c>
       <c r="D11">
-        <v>0.09265758532888906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1172575535350413</v>
+      </c>
+      <c r="E11">
+        <v>0.04654063127011453</v>
+      </c>
+      <c r="F11">
+        <v>-0.02328850909964053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1005031144652787</v>
+        <v>0.09191443860438188</v>
       </c>
       <c r="C12">
-        <v>-0.01021047052537083</v>
+        <v>0.00746497649810509</v>
       </c>
       <c r="D12">
-        <v>0.09308389874347948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321995175490613</v>
+      </c>
+      <c r="E12">
+        <v>0.04694675223172558</v>
+      </c>
+      <c r="F12">
+        <v>-0.0290291188044887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04134549136602283</v>
+        <v>0.04179425518904337</v>
       </c>
       <c r="C13">
-        <v>-0.003908018847815807</v>
+        <v>0.002455928306299857</v>
       </c>
       <c r="D13">
-        <v>0.03919961265303049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0536497790435061</v>
+      </c>
+      <c r="E13">
+        <v>-0.004504137697133898</v>
+      </c>
+      <c r="F13">
+        <v>-0.0009597198896684417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02381994328861951</v>
+        <v>0.02408156784784795</v>
       </c>
       <c r="C14">
-        <v>-0.01423806687659381</v>
+        <v>0.01379756881233804</v>
       </c>
       <c r="D14">
-        <v>0.02442227736952006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03280366565502385</v>
+      </c>
+      <c r="E14">
+        <v>0.01892935117530627</v>
+      </c>
+      <c r="F14">
+        <v>-0.01321817605827726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03760743066947587</v>
+        <v>0.03260988094988919</v>
       </c>
       <c r="C15">
-        <v>-0.005526195292070274</v>
+        <v>0.004521771575361495</v>
       </c>
       <c r="D15">
-        <v>0.02182651307627476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04484484199832785</v>
+      </c>
+      <c r="E15">
+        <v>0.006012383475833835</v>
+      </c>
+      <c r="F15">
+        <v>-0.02430366606466734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07822386016324964</v>
+        <v>0.0741461980580931</v>
       </c>
       <c r="C16">
-        <v>-0.004469705765476337</v>
+        <v>0.0007260404828775445</v>
       </c>
       <c r="D16">
-        <v>0.0895803011448089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278007740976161</v>
+      </c>
+      <c r="E16">
+        <v>0.0613811955205153</v>
+      </c>
+      <c r="F16">
+        <v>-0.02711031859107686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006789412956857596</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001931757183112127</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0008704302643006993</v>
+      </c>
+      <c r="E17">
+        <v>0.0005620952167411742</v>
+      </c>
+      <c r="F17">
+        <v>0.0007132683160822948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.003978602972834666</v>
+        <v>0.03593299878586924</v>
       </c>
       <c r="C18">
-        <v>0.0001536735480206571</v>
+        <v>-0.003089814858565645</v>
       </c>
       <c r="D18">
-        <v>0.0006982698704233537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01572338803925855</v>
+      </c>
+      <c r="E18">
+        <v>-0.0095958107665734</v>
+      </c>
+      <c r="F18">
+        <v>0.008466760686669357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06156908375753908</v>
+        <v>0.06149454598163885</v>
       </c>
       <c r="C20">
-        <v>-0.003729853960894038</v>
+        <v>-0.0001367987800572331</v>
       </c>
       <c r="D20">
-        <v>0.0365377108667497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07798390206284829</v>
+      </c>
+      <c r="E20">
+        <v>0.05668029046136376</v>
+      </c>
+      <c r="F20">
+        <v>-0.02500431492863859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04421580448871116</v>
+        <v>0.04066770309469925</v>
       </c>
       <c r="C21">
-        <v>-0.008199410204003435</v>
+        <v>0.00632679429252</v>
       </c>
       <c r="D21">
-        <v>0.01091515449836649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03785614428495804</v>
+      </c>
+      <c r="E21">
+        <v>-0.001878216977567312</v>
+      </c>
+      <c r="F21">
+        <v>0.02492405529792682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02773037932100163</v>
+        <v>0.04312887165352323</v>
       </c>
       <c r="C22">
-        <v>-1.569579329286604e-05</v>
+        <v>0.0003860740707625541</v>
       </c>
       <c r="D22">
-        <v>-0.02488097571590395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006672606856637166</v>
+      </c>
+      <c r="E22">
+        <v>0.0345680725849782</v>
+      </c>
+      <c r="F22">
+        <v>0.03731910863671845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02768169560022862</v>
+        <v>0.04310474768463463</v>
       </c>
       <c r="C23">
-        <v>-1.027075221289443e-05</v>
+        <v>0.000377714552193706</v>
       </c>
       <c r="D23">
-        <v>-0.0248766314106005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006688107875079056</v>
+      </c>
+      <c r="E23">
+        <v>0.03475094666347476</v>
+      </c>
+      <c r="F23">
+        <v>0.03728234943050687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08543719416456387</v>
+        <v>0.07977572370849145</v>
       </c>
       <c r="C24">
-        <v>-0.003899489686536029</v>
+        <v>0.001339722031140218</v>
       </c>
       <c r="D24">
-        <v>0.1018712952109321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1217600237425142</v>
+      </c>
+      <c r="E24">
+        <v>0.04939842913080927</v>
+      </c>
+      <c r="F24">
+        <v>-0.02776449926025622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09366130902261288</v>
+        <v>0.08516670721540785</v>
       </c>
       <c r="C25">
-        <v>-0.005740076620088151</v>
+        <v>0.004142461753781921</v>
       </c>
       <c r="D25">
-        <v>0.09101753809465493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109629709372561</v>
+      </c>
+      <c r="E25">
+        <v>0.03276579348976649</v>
+      </c>
+      <c r="F25">
+        <v>-0.02777325664316544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05901823129259184</v>
+        <v>0.05861307965598998</v>
       </c>
       <c r="C26">
-        <v>-0.01578005424406472</v>
+        <v>0.014206398685852</v>
       </c>
       <c r="D26">
-        <v>0.009494709430027256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04112854674919536</v>
+      </c>
+      <c r="E26">
+        <v>0.02856252560763653</v>
+      </c>
+      <c r="F26">
+        <v>0.006077197880981306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1350030747947628</v>
+        <v>0.1426160083661932</v>
       </c>
       <c r="C28">
-        <v>-0.0002681276577336117</v>
+        <v>0.02211407594134221</v>
       </c>
       <c r="D28">
-        <v>-0.2661905897259656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611735866485407</v>
+      </c>
+      <c r="E28">
+        <v>-0.06729450155883999</v>
+      </c>
+      <c r="F28">
+        <v>-0.009362252845153551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02452106668000126</v>
+        <v>0.02842369709606656</v>
       </c>
       <c r="C29">
-        <v>-0.009007633727218056</v>
+        <v>0.00861577049551741</v>
       </c>
       <c r="D29">
-        <v>0.01953501549591237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03105115206700234</v>
+      </c>
+      <c r="E29">
+        <v>0.01384143583729536</v>
+      </c>
+      <c r="F29">
+        <v>0.0132062718648943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09078530584272203</v>
+        <v>0.0592990895748218</v>
       </c>
       <c r="C30">
-        <v>-0.001583440774866816</v>
+        <v>0.002465030406173057</v>
       </c>
       <c r="D30">
-        <v>0.07253818099481871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09001873367069647</v>
+      </c>
+      <c r="E30">
+        <v>0.01638083340914888</v>
+      </c>
+      <c r="F30">
+        <v>-0.07902377782734595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0432003316400827</v>
+        <v>0.05075811716674225</v>
       </c>
       <c r="C31">
-        <v>-0.01496637262095296</v>
+        <v>0.01526662128309326</v>
       </c>
       <c r="D31">
-        <v>0.01596141273701749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02509156498340266</v>
+      </c>
+      <c r="E31">
+        <v>0.02854212895684184</v>
+      </c>
+      <c r="F31">
+        <v>0.0009175241360569187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05150095973004321</v>
+        <v>0.05121519089391288</v>
       </c>
       <c r="C32">
-        <v>0.0009642878634453243</v>
+        <v>-0.001906441816098043</v>
       </c>
       <c r="D32">
-        <v>0.01664135783003563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03532732874699484</v>
+      </c>
+      <c r="E32">
+        <v>0.03332415973709885</v>
+      </c>
+      <c r="F32">
+        <v>-0.003473704356949267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09813889774022456</v>
+        <v>0.08935095987040614</v>
       </c>
       <c r="C33">
-        <v>-0.00757378602439501</v>
+        <v>0.006581982700564966</v>
       </c>
       <c r="D33">
-        <v>0.06759614782667259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1010192315488733</v>
+      </c>
+      <c r="E33">
+        <v>0.04384745352122046</v>
+      </c>
+      <c r="F33">
+        <v>-0.03782370859120275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08027127557919608</v>
+        <v>0.06766568155829798</v>
       </c>
       <c r="C34">
-        <v>-0.01075069816097252</v>
+        <v>0.009831289418337021</v>
       </c>
       <c r="D34">
-        <v>0.08909064211648489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094648836786084</v>
+      </c>
+      <c r="E34">
+        <v>0.03486406192940836</v>
+      </c>
+      <c r="F34">
+        <v>-0.03380048228127668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02635529091818329</v>
+        <v>0.02477167183485399</v>
       </c>
       <c r="C35">
-        <v>-0.0007239751326556632</v>
+        <v>0.002438539674150956</v>
       </c>
       <c r="D35">
-        <v>0.002132839594829942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01113041505968164</v>
+      </c>
+      <c r="E35">
+        <v>0.01173359665419202</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006823191462525378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01520250707172633</v>
+        <v>0.02761887967424375</v>
       </c>
       <c r="C36">
-        <v>-0.009388776187536991</v>
+        <v>0.006781903447516148</v>
       </c>
       <c r="D36">
-        <v>0.02835112790446494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03996660607979465</v>
+      </c>
+      <c r="E36">
+        <v>0.01671678204058459</v>
+      </c>
+      <c r="F36">
+        <v>-0.01528024930858903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.000985872063798403</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006330143950803363</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002264509530483223</v>
+      </c>
+      <c r="E37">
+        <v>-0.00114996924682317</v>
+      </c>
+      <c r="F37">
+        <v>-0.00122052734390173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001325634323391167</v>
+        <v>4.182531253571922e-05</v>
       </c>
       <c r="C38">
-        <v>4.490361261451258e-07</v>
+        <v>-6.984654544821934e-05</v>
       </c>
       <c r="D38">
-        <v>0.001321105473633774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007208595340472047</v>
+      </c>
+      <c r="E38">
+        <v>-0.0002119634250942319</v>
+      </c>
+      <c r="F38">
+        <v>-0.0002933239670555006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1263440869309684</v>
+        <v>0.1042025511055867</v>
       </c>
       <c r="C39">
-        <v>-0.01679280933864991</v>
+        <v>0.01525921877428266</v>
       </c>
       <c r="D39">
-        <v>0.1378355636325745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1553214539683741</v>
+      </c>
+      <c r="E39">
+        <v>0.06047469933994147</v>
+      </c>
+      <c r="F39">
+        <v>-0.03005248842932178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03105265929813123</v>
+        <v>0.04124826825855545</v>
       </c>
       <c r="C40">
-        <v>-0.007572810619567459</v>
+        <v>0.00701125769666667</v>
       </c>
       <c r="D40">
-        <v>-0.01654755020307239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03035839751165997</v>
+      </c>
+      <c r="E40">
+        <v>0.002218223669746522</v>
+      </c>
+      <c r="F40">
+        <v>0.01605916696638626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02350467053555735</v>
+        <v>0.0283348782228901</v>
       </c>
       <c r="C41">
-        <v>-0.006419183175120277</v>
+        <v>0.006957384437253572</v>
       </c>
       <c r="D41">
-        <v>-0.000732594452218638</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01024444869012671</v>
+      </c>
+      <c r="E41">
+        <v>0.0120790450475582</v>
+      </c>
+      <c r="F41">
+        <v>0.005952088101440801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02930152459729324</v>
+        <v>0.04087735167492347</v>
       </c>
       <c r="C43">
-        <v>-0.008289547648540696</v>
+        <v>0.007015090990675211</v>
       </c>
       <c r="D43">
-        <v>0.005812090315349559</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01904428200081419</v>
+      </c>
+      <c r="E43">
+        <v>0.02548594502137581</v>
+      </c>
+      <c r="F43">
+        <v>0.01247828109607012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1001778838983447</v>
+        <v>0.07922564607752154</v>
       </c>
       <c r="C44">
-        <v>-0.01975830913195068</v>
+        <v>0.01903245315640107</v>
       </c>
       <c r="D44">
-        <v>0.06955906236731799</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09833918563438669</v>
+      </c>
+      <c r="E44">
+        <v>0.06279510266342843</v>
+      </c>
+      <c r="F44">
+        <v>-0.1546617498204791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01267558062414765</v>
+        <v>0.02338582058651044</v>
       </c>
       <c r="C46">
-        <v>-0.004221001198467321</v>
+        <v>0.003310105205986127</v>
       </c>
       <c r="D46">
-        <v>-0.002524887596168634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01287781796292432</v>
+      </c>
+      <c r="E46">
+        <v>0.02632313671733569</v>
+      </c>
+      <c r="F46">
+        <v>0.006261689223079596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03820974506100073</v>
+        <v>0.0522460740015365</v>
       </c>
       <c r="C47">
-        <v>-0.003436678297671667</v>
+        <v>0.00332079678406576</v>
       </c>
       <c r="D47">
-        <v>-0.01281285817949077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01399764798452768</v>
+      </c>
+      <c r="E47">
+        <v>0.023432994993712</v>
+      </c>
+      <c r="F47">
+        <v>0.03199678152963521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04908470382029327</v>
+        <v>0.05024824829487284</v>
       </c>
       <c r="C48">
-        <v>-0.003039190633201932</v>
+        <v>0.002024014568771937</v>
       </c>
       <c r="D48">
-        <v>0.03349745369017369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05053935902022376</v>
+      </c>
+      <c r="E48">
+        <v>-0.004626362390694739</v>
+      </c>
+      <c r="F48">
+        <v>-0.01002676431745789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.201370415795543</v>
+        <v>0.2004632053996754</v>
       </c>
       <c r="C49">
-        <v>-0.008121368160191794</v>
+        <v>0.01867045218925252</v>
       </c>
       <c r="D49">
-        <v>0.01052875741345242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005542779165542975</v>
+      </c>
+      <c r="E49">
+        <v>0.03199351306617032</v>
+      </c>
+      <c r="F49">
+        <v>-0.03641200294030191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04412271045071005</v>
+        <v>0.0511776152116252</v>
       </c>
       <c r="C50">
-        <v>-0.01075340366179535</v>
+        <v>0.01103352112063226</v>
       </c>
       <c r="D50">
-        <v>0.0118909682330636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02438163334093297</v>
+      </c>
+      <c r="E50">
+        <v>0.02985022131557325</v>
+      </c>
+      <c r="F50">
+        <v>-0.01007638561111369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-1.263462154519507e-05</v>
+        <v>-1.463250492157616e-05</v>
       </c>
       <c r="C51">
-        <v>2.191169442214583e-06</v>
+        <v>-6.820908860759569e-06</v>
       </c>
       <c r="D51">
-        <v>0.0002899071787536807</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0002233364176069374</v>
+      </c>
+      <c r="E51">
+        <v>0.0001376656182725689</v>
+      </c>
+      <c r="F51">
+        <v>-0.0001972645439518891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1615721134960572</v>
+        <v>0.1473334173987703</v>
       </c>
       <c r="C52">
-        <v>-0.007945120460685757</v>
+        <v>0.01670873227284352</v>
       </c>
       <c r="D52">
-        <v>0.05100387921243932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0430745015821983</v>
+      </c>
+      <c r="E52">
+        <v>0.01954396110706643</v>
+      </c>
+      <c r="F52">
+        <v>-0.04325790743848775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1716441923593181</v>
+        <v>0.171261107080813</v>
       </c>
       <c r="C53">
-        <v>-0.007512294094600178</v>
+        <v>0.01940154480659128</v>
       </c>
       <c r="D53">
-        <v>0.01937910436472104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005244422063585792</v>
+      </c>
+      <c r="E53">
+        <v>0.02832116494800333</v>
+      </c>
+      <c r="F53">
+        <v>-0.07337479360379372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02132928963635803</v>
+        <v>0.02100160656581238</v>
       </c>
       <c r="C54">
-        <v>-0.01106095943604162</v>
+        <v>0.01132186866070187</v>
       </c>
       <c r="D54">
-        <v>0.02195066826221172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03419226288313373</v>
+      </c>
+      <c r="E54">
+        <v>0.02163020464589037</v>
+      </c>
+      <c r="F54">
+        <v>0.0050440963391861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1126536381321007</v>
+        <v>0.1141363374662126</v>
       </c>
       <c r="C55">
-        <v>-0.009364383925705828</v>
+        <v>0.01713996305242583</v>
       </c>
       <c r="D55">
-        <v>0.004179805940267329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007942101741598243</v>
+      </c>
+      <c r="E55">
+        <v>0.0235968899043339</v>
+      </c>
+      <c r="F55">
+        <v>-0.04741509424900182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1761130871694435</v>
+        <v>0.1768364024224225</v>
       </c>
       <c r="C56">
-        <v>-0.005727240246208029</v>
+        <v>0.01731335679091681</v>
       </c>
       <c r="D56">
-        <v>-0.003302895534113913</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001566715009558255</v>
+      </c>
+      <c r="E56">
+        <v>0.0330678281565333</v>
+      </c>
+      <c r="F56">
+        <v>-0.05175136863688405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02906468023416046</v>
+        <v>0.04471538094248526</v>
       </c>
       <c r="C58">
-        <v>-0.0067426512645904</v>
+        <v>-0.0005455902552947323</v>
       </c>
       <c r="D58">
-        <v>0.05387620602955288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07143089704211115</v>
+      </c>
+      <c r="E58">
+        <v>0.03148744600923416</v>
+      </c>
+      <c r="F58">
+        <v>0.0384021525240041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.159998429757861</v>
+        <v>0.1678229752069905</v>
       </c>
       <c r="C59">
-        <v>0.0002895776198601242</v>
+        <v>0.02212540466139174</v>
       </c>
       <c r="D59">
-        <v>-0.2289848379145019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.216817971920539</v>
+      </c>
+      <c r="E59">
+        <v>-0.04599645850307942</v>
+      </c>
+      <c r="F59">
+        <v>0.03545429894349153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2494575749112199</v>
+        <v>0.2317474166457097</v>
       </c>
       <c r="C60">
-        <v>0.01648211786280182</v>
+        <v>-0.002670121197225859</v>
       </c>
       <c r="D60">
-        <v>0.05999556010247192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04209775521428526</v>
+      </c>
+      <c r="E60">
+        <v>0.009735483162172843</v>
+      </c>
+      <c r="F60">
+        <v>0.006015104614266692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1012738167631152</v>
+        <v>0.08022570933211982</v>
       </c>
       <c r="C61">
-        <v>-0.01113110734163984</v>
+        <v>0.01102879583279004</v>
       </c>
       <c r="D61">
-        <v>0.09433320999886805</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180500116684758</v>
+      </c>
+      <c r="E61">
+        <v>0.03992154830841241</v>
+      </c>
+      <c r="F61">
+        <v>-0.01323585863030572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1743255638152298</v>
+        <v>0.1697716782215768</v>
       </c>
       <c r="C62">
-        <v>-0.009595428492045402</v>
+        <v>0.02034113399294864</v>
       </c>
       <c r="D62">
-        <v>-0.002068287517105298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00579004354338843</v>
+      </c>
+      <c r="E62">
+        <v>0.03336418440419395</v>
+      </c>
+      <c r="F62">
+        <v>-0.03557627242354085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04791424417426262</v>
+        <v>0.04568815042619324</v>
       </c>
       <c r="C63">
-        <v>-0.003687472816644478</v>
+        <v>0.001653879521203157</v>
       </c>
       <c r="D63">
-        <v>0.03555330721067025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05857202488380215</v>
+      </c>
+      <c r="E63">
+        <v>0.02299549245623826</v>
+      </c>
+      <c r="F63">
+        <v>-0.003259475407034927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1025185389296099</v>
+        <v>0.1099590218821574</v>
       </c>
       <c r="C64">
-        <v>-0.009250584168954299</v>
+        <v>0.01110550784000005</v>
       </c>
       <c r="D64">
-        <v>0.01380296361122275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04438818543831067</v>
+      </c>
+      <c r="E64">
+        <v>0.02230712750384187</v>
+      </c>
+      <c r="F64">
+        <v>-0.02599928845997457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1296605079720294</v>
+        <v>0.1497065399829818</v>
       </c>
       <c r="C65">
-        <v>-0.02593846649567207</v>
+        <v>0.03364965434510331</v>
       </c>
       <c r="D65">
-        <v>-0.01730882840288079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04332075812377832</v>
+      </c>
+      <c r="E65">
+        <v>0.005601813221982644</v>
+      </c>
+      <c r="F65">
+        <v>-0.04052364620686482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1519811845205686</v>
+        <v>0.1236261314148042</v>
       </c>
       <c r="C66">
-        <v>-0.01274487875128643</v>
+        <v>0.01315381521410013</v>
       </c>
       <c r="D66">
-        <v>0.1323487185162713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1431680780602149</v>
+      </c>
+      <c r="E66">
+        <v>0.06615191584487759</v>
+      </c>
+      <c r="F66">
+        <v>-0.03389379362748918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05657199584589791</v>
+        <v>0.05789305632980452</v>
       </c>
       <c r="C67">
-        <v>-0.002281053886438</v>
+        <v>0.002732085811479069</v>
       </c>
       <c r="D67">
-        <v>0.04101882650928323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05638495912458064</v>
+      </c>
+      <c r="E67">
+        <v>0.01676776529412505</v>
+      </c>
+      <c r="F67">
+        <v>0.03156367710101408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1117474393873694</v>
+        <v>0.1165361808790608</v>
       </c>
       <c r="C68">
-        <v>-0.01098503991824422</v>
+        <v>0.03266661340602874</v>
       </c>
       <c r="D68">
-        <v>-0.2434857925997607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2603520073091294</v>
+      </c>
+      <c r="E68">
+        <v>-0.08676049593457634</v>
+      </c>
+      <c r="F68">
+        <v>-0.005211980647841938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03522372387254802</v>
+        <v>0.0394486015229066</v>
       </c>
       <c r="C69">
-        <v>0.0002855196713729</v>
+        <v>0.001203560840737561</v>
       </c>
       <c r="D69">
-        <v>0.00114146722208816</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008036423338424175</v>
+      </c>
+      <c r="E69">
+        <v>0.02370430704392257</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006222096691485726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04883828220620676</v>
+        <v>0.0669168076728769</v>
       </c>
       <c r="C70">
-        <v>0.02556336973488931</v>
+        <v>-0.02750070303329891</v>
       </c>
       <c r="D70">
-        <v>-0.04824534044018788</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02412373324951893</v>
+      </c>
+      <c r="E70">
+        <v>-0.03448267741854834</v>
+      </c>
+      <c r="F70">
+        <v>0.1828272450909991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1249368956994724</v>
+        <v>0.1364605055286494</v>
       </c>
       <c r="C71">
-        <v>-0.01475728855044834</v>
+        <v>0.03702262580546755</v>
       </c>
       <c r="D71">
-        <v>-0.2612247346071729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721022925373507</v>
+      </c>
+      <c r="E71">
+        <v>-0.09735176280454204</v>
+      </c>
+      <c r="F71">
+        <v>-0.01056105661107957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1345749678828508</v>
+        <v>0.1427134328109217</v>
       </c>
       <c r="C72">
-        <v>-0.01961696659847975</v>
+        <v>0.02683935831506713</v>
       </c>
       <c r="D72">
-        <v>-0.007965396019824713</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002357661645927801</v>
+      </c>
+      <c r="E72">
+        <v>0.03696356639188195</v>
+      </c>
+      <c r="F72">
+        <v>-0.0312168043744347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2009092053652275</v>
+        <v>0.2032964798543284</v>
       </c>
       <c r="C73">
-        <v>-0.001829977166737657</v>
+        <v>0.01249122522990382</v>
       </c>
       <c r="D73">
-        <v>0.003842385267409733</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01823533804428916</v>
+      </c>
+      <c r="E73">
+        <v>0.06347282243326276</v>
+      </c>
+      <c r="F73">
+        <v>-0.03722172483255461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09719576589487861</v>
+        <v>0.0948790023464151</v>
       </c>
       <c r="C74">
-        <v>-0.005910921685546438</v>
+        <v>0.01330831940848236</v>
       </c>
       <c r="D74">
-        <v>0.02271500544709407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01690821500088444</v>
+      </c>
+      <c r="E74">
+        <v>0.04373902576164387</v>
+      </c>
+      <c r="F74">
+        <v>-0.05758995746801553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1356730538501966</v>
+        <v>0.1273595915948462</v>
       </c>
       <c r="C75">
-        <v>-0.02038184928003435</v>
+        <v>0.02793448465280334</v>
       </c>
       <c r="D75">
-        <v>0.0183245345499384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03062981318830649</v>
+      </c>
+      <c r="E75">
+        <v>0.05822260088556096</v>
+      </c>
+      <c r="F75">
+        <v>-0.02195759485132216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0715379104772958</v>
+        <v>0.08725394113031203</v>
       </c>
       <c r="C77">
-        <v>-0.01235321521845929</v>
+        <v>0.00789529517493215</v>
       </c>
       <c r="D77">
-        <v>0.09871327479768507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1118475734338112</v>
+      </c>
+      <c r="E77">
+        <v>0.03813256559068651</v>
+      </c>
+      <c r="F77">
+        <v>-0.03542106042929419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1020847907110585</v>
+        <v>0.09988083093447719</v>
       </c>
       <c r="C78">
-        <v>-0.04043102098425034</v>
+        <v>0.03914019701303866</v>
       </c>
       <c r="D78">
-        <v>0.09041327281113117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.113775617502635</v>
+      </c>
+      <c r="E78">
+        <v>0.07412206061237141</v>
+      </c>
+      <c r="F78">
+        <v>-0.04769502728383579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1636990937334443</v>
+        <v>0.1640730844664597</v>
       </c>
       <c r="C79">
-        <v>-0.01346145077336079</v>
+        <v>0.02273122053635004</v>
       </c>
       <c r="D79">
-        <v>-0.002097605607285474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01418860103701337</v>
+      </c>
+      <c r="E79">
+        <v>0.04590301416714248</v>
+      </c>
+      <c r="F79">
+        <v>-0.01194831129848344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08853400491300771</v>
+        <v>0.0824037610577643</v>
       </c>
       <c r="C80">
-        <v>0.002359177222948762</v>
+        <v>-0.001117018583855507</v>
       </c>
       <c r="D80">
-        <v>0.04956651065813428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05662187058504408</v>
+      </c>
+      <c r="E80">
+        <v>0.03640297188875787</v>
+      </c>
+      <c r="F80">
+        <v>0.02243635035527776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1198346712742678</v>
+        <v>0.1197563234593488</v>
       </c>
       <c r="C81">
-        <v>-0.02426535036079535</v>
+        <v>0.03186064042547333</v>
       </c>
       <c r="D81">
-        <v>0.03467605942056231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01498951778320195</v>
+      </c>
+      <c r="E81">
+        <v>0.05706764067776801</v>
+      </c>
+      <c r="F81">
+        <v>-0.01757290759637649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1694767221141372</v>
+        <v>0.1659523354101618</v>
       </c>
       <c r="C82">
-        <v>-0.01336615404619986</v>
+        <v>0.02480722845982244</v>
       </c>
       <c r="D82">
-        <v>0.02185291296175754</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003494306036356418</v>
+      </c>
+      <c r="E82">
+        <v>0.02601288925727523</v>
+      </c>
+      <c r="F82">
+        <v>-0.08118782257046997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06500624271713798</v>
+        <v>0.05870454379979929</v>
       </c>
       <c r="C83">
-        <v>-0.003721393595570243</v>
+        <v>0.002579116053284047</v>
       </c>
       <c r="D83">
-        <v>0.03232822532875643</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05085267663685154</v>
+      </c>
+      <c r="E83">
+        <v>0.002930254425943178</v>
+      </c>
+      <c r="F83">
+        <v>0.03070963436440006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06828167968386949</v>
+        <v>0.05904314334122945</v>
       </c>
       <c r="C84">
-        <v>-0.01132045504884992</v>
+        <v>0.01093100373263292</v>
       </c>
       <c r="D84">
-        <v>0.05131240873864864</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06403675057485606</v>
+      </c>
+      <c r="E84">
+        <v>0.007455063902414063</v>
+      </c>
+      <c r="F84">
+        <v>-0.005837636648365986</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1338763830017187</v>
+        <v>0.1354216124104232</v>
       </c>
       <c r="C85">
-        <v>-0.02093413038521792</v>
+        <v>0.02793052423539474</v>
       </c>
       <c r="D85">
-        <v>0.01179725062766715</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009651584986027532</v>
+      </c>
+      <c r="E85">
+        <v>0.03618358043967959</v>
+      </c>
+      <c r="F85">
+        <v>-0.04781472611914554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.07255966578976084</v>
+        <v>0.09422062288489427</v>
       </c>
       <c r="C86">
-        <v>0.001367856086733259</v>
+        <v>-0.005613746243593247</v>
       </c>
       <c r="D86">
-        <v>-0.0618415182964579</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03972957066226943</v>
+      </c>
+      <c r="E86">
+        <v>0.2262639908356108</v>
+      </c>
+      <c r="F86">
+        <v>0.9050927690967784</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.116544653550931</v>
+        <v>0.09429875014792724</v>
       </c>
       <c r="C87">
-        <v>-0.02059709255469144</v>
+        <v>0.01900414966813017</v>
       </c>
       <c r="D87">
-        <v>0.07018848335194945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09432682683003218</v>
+      </c>
+      <c r="E87">
+        <v>-0.05310126183125383</v>
+      </c>
+      <c r="F87">
+        <v>-0.04750745929310212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05666602058429884</v>
+        <v>0.06078539409769661</v>
       </c>
       <c r="C88">
-        <v>-0.003304835120255024</v>
+        <v>0.00215269002451909</v>
       </c>
       <c r="D88">
-        <v>0.02773756420501616</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04992825931389246</v>
+      </c>
+      <c r="E88">
+        <v>0.02424573083828014</v>
+      </c>
+      <c r="F88">
+        <v>-0.01389531197062933</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1240413494192122</v>
+        <v>0.1308057009878798</v>
       </c>
       <c r="C89">
-        <v>0.006914771164018865</v>
+        <v>0.01361143200173105</v>
       </c>
       <c r="D89">
-        <v>-0.2686741912716327</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2467852782136047</v>
+      </c>
+      <c r="E89">
+        <v>-0.08903880248057261</v>
+      </c>
+      <c r="F89">
+        <v>0.007858089521039776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1286029413711467</v>
+        <v>0.1513486996518247</v>
       </c>
       <c r="C90">
-        <v>-0.01215534779870471</v>
+        <v>0.03374831116527183</v>
       </c>
       <c r="D90">
-        <v>-0.2621973669030744</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2702067421462853</v>
+      </c>
+      <c r="E90">
+        <v>-0.1128397734993976</v>
+      </c>
+      <c r="F90">
+        <v>0.006721655041340887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1149970049051215</v>
+        <v>0.1208595534663195</v>
       </c>
       <c r="C91">
-        <v>-0.01069139135954153</v>
+        <v>0.01957325871990952</v>
       </c>
       <c r="D91">
-        <v>-0.01561170760250785</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01479349574534708</v>
+      </c>
+      <c r="E91">
+        <v>0.05535326573359835</v>
+      </c>
+      <c r="F91">
+        <v>0.001188719441600878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1446450386612026</v>
+        <v>0.1485670155263303</v>
       </c>
       <c r="C92">
-        <v>0.0001771964301755149</v>
+        <v>0.02465184188124073</v>
       </c>
       <c r="D92">
-        <v>-0.293055765792217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913368625470741</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014875118423927</v>
+      </c>
+      <c r="F92">
+        <v>0.01218055491910255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1304587817825636</v>
+        <v>0.1522596200745163</v>
       </c>
       <c r="C93">
-        <v>-0.007844657702436558</v>
+        <v>0.0289646188774331</v>
       </c>
       <c r="D93">
-        <v>-0.2574905936681727</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2667932505371046</v>
+      </c>
+      <c r="E93">
+        <v>-0.07896060966957297</v>
+      </c>
+      <c r="F93">
+        <v>-0.003986068116970739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1350999241910557</v>
+        <v>0.1282408406901066</v>
       </c>
       <c r="C94">
-        <v>-0.01700144780887461</v>
+        <v>0.02432613572629058</v>
       </c>
       <c r="D94">
-        <v>0.0388299314180717</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04187091110982372</v>
+      </c>
+      <c r="E94">
+        <v>0.05714765745282106</v>
+      </c>
+      <c r="F94">
+        <v>-0.03596966896131775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1188110266799216</v>
+        <v>0.1266950770369378</v>
       </c>
       <c r="C95">
-        <v>-0.005357158994276401</v>
+        <v>0.002918315757624235</v>
       </c>
       <c r="D95">
-        <v>0.06845910577689049</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09512664516644678</v>
+      </c>
+      <c r="E95">
+        <v>0.04936959657801776</v>
+      </c>
+      <c r="F95">
+        <v>0.004444849207279364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05302838182706806</v>
+        <v>0.1075964144486543</v>
       </c>
       <c r="C96">
-        <v>0.9930839077662027</v>
+        <v>-0.9872626351646503</v>
       </c>
       <c r="D96">
-        <v>-0.005274957563816895</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05163326536746116</v>
+      </c>
+      <c r="E96">
+        <v>0.05345114438753486</v>
+      </c>
+      <c r="F96">
+        <v>-0.04245191436176481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1959863230794685</v>
+        <v>0.1924709889009065</v>
       </c>
       <c r="C97">
-        <v>0.01902214647089341</v>
+        <v>-0.00689714779517079</v>
       </c>
       <c r="D97">
-        <v>-0.04704894623717371</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0179802202031673</v>
+      </c>
+      <c r="E97">
+        <v>0.022310670284483</v>
+      </c>
+      <c r="F97">
+        <v>0.09616034608780333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2018435505182539</v>
+        <v>0.2061509800154201</v>
       </c>
       <c r="C98">
-        <v>0.002768917327759298</v>
+        <v>0.006875108050006651</v>
       </c>
       <c r="D98">
-        <v>-0.006890943479640092</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01246896701625068</v>
+      </c>
+      <c r="E98">
+        <v>-0.07895401658605715</v>
+      </c>
+      <c r="F98">
+        <v>0.09442016859046094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05239983371743779</v>
+        <v>0.05427227737978386</v>
       </c>
       <c r="C99">
-        <v>0.005162864884197016</v>
+        <v>-0.004760844219072027</v>
       </c>
       <c r="D99">
-        <v>0.02457862807282723</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04020205853390289</v>
+      </c>
+      <c r="E99">
+        <v>0.02251710136285672</v>
+      </c>
+      <c r="F99">
+        <v>-0.002376000645425552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1452444377539161</v>
+        <v>0.1268680258483969</v>
       </c>
       <c r="C100">
-        <v>0.04179736764596872</v>
+        <v>-0.05414621013296417</v>
       </c>
       <c r="D100">
-        <v>0.4899483452497577</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.346664736692701</v>
+      </c>
+      <c r="E100">
+        <v>-0.8862210978702529</v>
+      </c>
+      <c r="F100">
+        <v>0.1559936456255241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02428110862269489</v>
+        <v>0.02838527945310636</v>
       </c>
       <c r="C101">
-        <v>-0.008982638352191902</v>
+        <v>0.008641225350708007</v>
       </c>
       <c r="D101">
-        <v>0.01871722009868891</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03065479681403412</v>
+      </c>
+      <c r="E101">
+        <v>0.01322827880427724</v>
+      </c>
+      <c r="F101">
+        <v>0.01440846369056548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
